--- a/vols.xlsx
+++ b/vols.xlsx
@@ -44,7 +44,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -69,6 +69,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA500"/>
+        <bgColor rgb="00FFA500"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -82,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -100,6 +118,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,40 +613,59 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="9" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="B6" s="9" t="n"/>
+      <c r="C6" s="9" t="n"/>
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve"> NOUV10 </t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">VM 
 </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1130</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0120</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LFMU</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="H6" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I6" s="9" t="inlineStr">
         <is>
           <t>1250</t>
         </is>
       </c>
+      <c r="J6" s="9" t="n"/>
+      <c r="K6" s="9" t="n"/>
+      <c r="L6" s="9" t="n"/>
+      <c r="M6" s="9" t="n"/>
+      <c r="N6" s="9" t="n"/>
+      <c r="O6" s="9" t="n"/>
+      <c r="P6" s="9" t="n"/>
+      <c r="Q6" s="9" t="n"/>
+      <c r="R6" s="9" t="n"/>
+      <c r="S6" s="9" t="n"/>
+      <c r="T6" s="9" t="n"/>
+      <c r="U6" s="9" t="n"/>
+      <c r="V6" s="9" t="n"/>
+      <c r="W6" s="9" t="n"/>
+      <c r="X6" s="9" t="n"/>
+      <c r="Y6" s="9" t="n"/>
+      <c r="Z6" s="9" t="n"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1015,39 +1054,58 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="B18" s="10" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> ALER32 </t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LFMY</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F18" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0930</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0230</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LFMU</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
+      <c r="H18" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I18" s="10" t="inlineStr">
         <is>
           <t>1160</t>
         </is>
       </c>
+      <c r="J18" s="10" t="n"/>
+      <c r="K18" s="10" t="n"/>
+      <c r="L18" s="10" t="n"/>
+      <c r="M18" s="10" t="n"/>
+      <c r="N18" s="10" t="n"/>
+      <c r="O18" s="10" t="n"/>
+      <c r="P18" s="10" t="n"/>
+      <c r="Q18" s="10" t="n"/>
+      <c r="R18" s="10" t="n"/>
+      <c r="S18" s="10" t="n"/>
+      <c r="T18" s="10" t="n"/>
+      <c r="U18" s="10" t="n"/>
+      <c r="V18" s="10" t="n"/>
+      <c r="W18" s="10" t="n"/>
+      <c r="X18" s="10" t="n"/>
+      <c r="Y18" s="10" t="n"/>
+      <c r="Z18" s="10" t="n"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1388,36 +1446,56 @@
       </c>
     </row>
     <row r="29">
-      <c r="D29" t="inlineStr">
+      <c r="A29" s="10" t="n"/>
+      <c r="B29" s="10" t="n"/>
+      <c r="C29" s="10" t="n"/>
+      <c r="D29" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> TEST01 </t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> LFCR</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0925</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G29" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0120</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" s="10" t="inlineStr">
         <is>
           <t xml:space="preserve"> LFCI</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I29" s="10" t="inlineStr">
         <is>
           <t>1045</t>
         </is>
       </c>
+      <c r="J29" s="10" t="n"/>
+      <c r="K29" s="10" t="n"/>
+      <c r="L29" s="10" t="n"/>
+      <c r="M29" s="10" t="n"/>
+      <c r="N29" s="10" t="n"/>
+      <c r="O29" s="10" t="n"/>
+      <c r="P29" s="10" t="n"/>
+      <c r="Q29" s="10" t="n"/>
+      <c r="R29" s="10" t="n"/>
+      <c r="S29" s="10" t="n"/>
+      <c r="T29" s="10" t="n"/>
+      <c r="U29" s="10" t="n"/>
+      <c r="V29" s="10" t="n"/>
+      <c r="W29" s="10" t="n"/>
+      <c r="X29" s="10" t="n"/>
+      <c r="Y29" s="10" t="n"/>
+      <c r="Z29" s="10" t="n"/>
     </row>
     <row r="30">
       <c r="D30" t="inlineStr">
@@ -1484,36 +1562,56 @@
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="inlineStr">
+      <c r="A32" s="9" t="n"/>
+      <c r="B32" s="9" t="n"/>
+      <c r="C32" s="9" t="n"/>
+      <c r="D32" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve"> NOUV10 </t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LFMY</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1:13</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve"> 0:12</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LFMU</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>12:50</t>
-        </is>
-      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I32" s="9" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n"/>
+      <c r="K32" s="9" t="n"/>
+      <c r="L32" s="9" t="n"/>
+      <c r="M32" s="9" t="n"/>
+      <c r="N32" s="9" t="n"/>
+      <c r="O32" s="9" t="n"/>
+      <c r="P32" s="9" t="n"/>
+      <c r="Q32" s="9" t="n"/>
+      <c r="R32" s="9" t="n"/>
+      <c r="S32" s="9" t="n"/>
+      <c r="T32" s="9" t="n"/>
+      <c r="U32" s="9" t="n"/>
+      <c r="V32" s="9" t="n"/>
+      <c r="W32" s="9" t="n"/>
+      <c r="X32" s="9" t="n"/>
+      <c r="Y32" s="9" t="n"/>
+      <c r="Z32" s="9" t="n"/>
     </row>
     <row r="33">
       <c r="D33" t="inlineStr">
@@ -1713,111 +1811,4053 @@
         </is>
       </c>
     </row>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
-    <row r="54"/>
-    <row r="55"/>
-    <row r="56"/>
-    <row r="57"/>
-    <row r="58"/>
-    <row r="59"/>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="75"/>
-    <row r="76"/>
-    <row r="77"/>
-    <row r="78"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85"/>
-    <row r="86"/>
-    <row r="87"/>
-    <row r="88"/>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91"/>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97"/>
-    <row r="98"/>
-    <row r="99"/>
-    <row r="100"/>
-    <row r="101"/>
-    <row r="102"/>
-    <row r="103"/>
-    <row r="104"/>
-    <row r="105"/>
-    <row r="106"/>
-    <row r="107"/>
-    <row r="108"/>
-    <row r="109"/>
-    <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
-    <row r="121"/>
-    <row r="122"/>
-    <row r="123"/>
-    <row r="124"/>
-    <row r="125"/>
-    <row r="126"/>
-    <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
-    <row r="131"/>
-    <row r="132"/>
-    <row r="133"/>
-    <row r="134"/>
-    <row r="135"/>
-    <row r="136"/>
-    <row r="137"/>
-    <row r="138"/>
-    <row r="139"/>
-    <row r="140"/>
-    <row r="141"/>
-    <row r="142"/>
-    <row r="143"/>
+    <row r="39">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO01 </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO01 </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COLE44 </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COPE44 </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="n"/>
+      <c r="B59" s="9" t="n"/>
+      <c r="C59" s="9" t="n"/>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ALER32 </t>
+        </is>
+      </c>
+      <c r="E59" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09:30</t>
+        </is>
+      </c>
+      <c r="G59" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 02:30</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I59" s="9" t="inlineStr">
+        <is>
+          <t>11:60</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+      <c r="K59" s="9" t="n"/>
+      <c r="L59" s="9" t="n"/>
+      <c r="M59" s="9" t="n"/>
+      <c r="N59" s="9" t="n"/>
+      <c r="O59" s="9" t="n"/>
+      <c r="P59" s="9" t="n"/>
+      <c r="Q59" s="9" t="n"/>
+      <c r="R59" s="9" t="n"/>
+      <c r="S59" s="9" t="n"/>
+      <c r="T59" s="9" t="n"/>
+      <c r="U59" s="9" t="n"/>
+      <c r="V59" s="9" t="n"/>
+      <c r="W59" s="9" t="n"/>
+      <c r="X59" s="9" t="n"/>
+      <c r="Y59" s="9" t="n"/>
+      <c r="Z59" s="9" t="n"/>
+    </row>
+    <row r="60">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CORE44 </t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOUV01 </t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOUV02 </t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOUV03 </t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOUV04 </t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOUV06 </t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOUV07 </t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOUV08 </t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOUV09 </t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOUV10 </t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="10" t="n"/>
+      <c r="B70" s="10" t="n"/>
+      <c r="C70" s="10" t="n"/>
+      <c r="D70" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TEST01 </t>
+        </is>
+      </c>
+      <c r="E70" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFCR</t>
+        </is>
+      </c>
+      <c r="F70" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09:25</t>
+        </is>
+      </c>
+      <c r="G70" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H70" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFCI</t>
+        </is>
+      </c>
+      <c r="I70" s="10" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="J70" s="10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOULOUSE PAU LYON 
+</t>
+        </is>
+      </c>
+      <c r="K70" s="10" t="n"/>
+      <c r="L70" s="10" t="n"/>
+      <c r="M70" s="10" t="n"/>
+      <c r="N70" s="10" t="n"/>
+      <c r="O70" s="10" t="n"/>
+      <c r="P70" s="10" t="n"/>
+      <c r="Q70" s="10" t="n"/>
+      <c r="R70" s="10" t="n"/>
+      <c r="S70" s="10" t="n"/>
+      <c r="T70" s="10" t="n"/>
+      <c r="U70" s="10" t="n"/>
+      <c r="V70" s="10" t="n"/>
+      <c r="W70" s="10" t="n"/>
+      <c r="X70" s="10" t="n"/>
+      <c r="Y70" s="10" t="n"/>
+      <c r="Z70" s="10" t="n"/>
+    </row>
+    <row r="71">
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> TEST81 </t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFCR</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 09:25</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFCI</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>10:45</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOULOUSE PAU LYON 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOUV03 </t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOUV10 </t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOUV20 </t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOUV30 </t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOUV40 </t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOUV50 </t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOUV60 </t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> NOUV70 </t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO01 </t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO01 </t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO01 </t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO01 </t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO01 </t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO02 </t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO01 </t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO02 </t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> COTE44 </t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMY</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO06 </t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO01 </t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO02 </t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO06 </t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO01 </t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO02 </t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO06 </t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO01 </t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO02 </t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO06 </t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO01 </t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO02 </t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO01 </t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO02 </t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO06 </t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO01 </t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFMU</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO02 </t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01:20</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>12:50</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="9" t="n"/>
+      <c r="B142" s="9" t="n"/>
+      <c r="C142" s="9" t="n"/>
+      <c r="D142" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO34 </t>
+        </is>
+      </c>
+      <c r="E142" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="F142" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:00</t>
+        </is>
+      </c>
+      <c r="G142" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="H142" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="I142" s="9" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="J142" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+      <c r="K142" s="9" t="n"/>
+      <c r="L142" s="9" t="n"/>
+      <c r="M142" s="9" t="n"/>
+      <c r="N142" s="9" t="n"/>
+      <c r="O142" s="9" t="n"/>
+      <c r="P142" s="9" t="n"/>
+      <c r="Q142" s="9" t="n"/>
+      <c r="R142" s="9" t="n"/>
+      <c r="S142" s="9" t="n"/>
+      <c r="T142" s="9" t="n"/>
+      <c r="U142" s="9" t="n"/>
+      <c r="V142" s="9" t="n"/>
+      <c r="W142" s="9" t="n"/>
+      <c r="X142" s="9" t="n"/>
+      <c r="Y142" s="9" t="n"/>
+      <c r="Z142" s="9" t="n"/>
+    </row>
+    <row r="143">
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ANTO33 </t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFHN</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:00</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 11:30</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> LFAF</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>22:30</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UZES SAINT HIPPOLYTTE DU FORT BEDARIEUX 
+</t>
+        </is>
+      </c>
+    </row>
     <row r="144"/>
     <row r="145"/>
     <row r="146"/>
